--- a/biology/Médecine/Bois_Larris/Bois_Larris.xlsx
+++ b/biology/Médecine/Bois_Larris/Bois_Larris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bois Larris est une ancienne demeure de la famille Menier, située dans l'Oise à proximité de Chantilly. Le site abrite depuis 1956 une institution permettant à des mineurs handicapés moteurs de recevoir un suivi médical adapté tout en poursuivant sur place leur scolarité[1]. Ce manoir accueillit à la fin de la Seconde Guerre mondiale le seul « Lebensborn » sur le sol français. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bois Larris est une ancienne demeure de la famille Menier, située dans l'Oise à proximité de Chantilly. Le site abrite depuis 1956 une institution permettant à des mineurs handicapés moteurs de recevoir un suivi médical adapté tout en poursuivant sur place leur scolarité. Ce manoir accueillit à la fin de la Seconde Guerre mondiale le seul « Lebensborn » sur le sol français. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Picard, un larris désigne une lande dont on se sert de pacage pour les moutons. Ce mot est apparenté au terme laer ou leer qui désigne une friche dans le Nord, ou encore au Leyritz ou Leyris (la vaine pâture) dans le sud de la France[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Picard, un larris désigne une lande dont on se sert de pacage pour les moutons. Ce mot est apparenté au terme laer ou leer qui désigne une friche dans le Nord, ou encore au Leyritz ou Leyris (la vaine pâture) dans le sud de la France.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Situé sur la commune de Lamorlaye, le manoir de Bois Larris et ses dépendances sont construits à partir de 1911 à la demande de Gaston Menier selon des plans de Stephen Sauvestre, dans le style anglo-normand qu'affectionnait cet architecte[3]. Lorsque son fils Georges Menier et son épouse Simonne Legrand s'y installent en 1919, la demeure s'appelle alors la Villa Tourne-Bride[4]. Elle est dotée d'un jardin japonais et reste une propriété privée jusqu'en 1955. 
-En 1940, la demeure est réquisitionnée par l'armée allemande dans un premier temps pour loger des troupes, puis à partir de 1942 réattribuée à la SS. Son cadre champêtre et sa situation géographique peu éloignée de Paris lui valent alors d'abriter l'unique lebensborn sur le sol français. Cette pouponnière est inaugurée sous le nom de Westwald (la forêt de l'Ouest) le 6 février 1944. La population locale est soigneusement tenue à l'écart et le site gardé par la SS. Il y naît une vingtaine d'enfants. À la suite de sa tournée d'inspection du 24 avril 1944, le médecin nazi et Oberführer SS Gregor Ebner rédige un rapport de 3 pages sur l'établissement où il note la mauvaise gestion de la maternité liée à l'absence du Commandant responsable de la place. Il est en revanche satisfait par la qualité raciale des six mères alors présentes et la bonne santé des enfants[5]. Le 7 août 1944, le site est évacué en urgence, les archives brûlées et les nouveau-nés transférés vers la maison mère de Steinhöring en Haute-Bavière[6],[7]. 
-Après la libération, la villa reste inoccupée pendant une dizaine d'années avant d'être rachetée par la Fondation Pour le Traitement et la Formation Professionnelle des Jeunes Infirmes, sous l'impulsion de la baronne Jacqueline de Maupeou, épouse du banquier Jacques Mallet, très active au sein de la Croix-Rouge. La demeure abrite dès lors un Centre de Réadaptation Fonctionnelle, avec un internat de 76 lits. En 1965, la Croix-Rouge devient gestionnaire du site. L'association devient propriétaire des lieux à compter de 1980[8]. En 2001, une unité clinique de la marche et du mouvement y est installée.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Situé sur la commune de Lamorlaye, le manoir de Bois Larris et ses dépendances sont construits à partir de 1911 à la demande de Gaston Menier selon des plans de Stephen Sauvestre, dans le style anglo-normand qu'affectionnait cet architecte. Lorsque son fils Georges Menier et son épouse Simonne Legrand s'y installent en 1919, la demeure s'appelle alors la Villa Tourne-Bride. Elle est dotée d'un jardin japonais et reste une propriété privée jusqu'en 1955. 
+En 1940, la demeure est réquisitionnée par l'armée allemande dans un premier temps pour loger des troupes, puis à partir de 1942 réattribuée à la SS. Son cadre champêtre et sa situation géographique peu éloignée de Paris lui valent alors d'abriter l'unique lebensborn sur le sol français. Cette pouponnière est inaugurée sous le nom de Westwald (la forêt de l'Ouest) le 6 février 1944. La population locale est soigneusement tenue à l'écart et le site gardé par la SS. Il y naît une vingtaine d'enfants. À la suite de sa tournée d'inspection du 24 avril 1944, le médecin nazi et Oberführer SS Gregor Ebner rédige un rapport de 3 pages sur l'établissement où il note la mauvaise gestion de la maternité liée à l'absence du Commandant responsable de la place. Il est en revanche satisfait par la qualité raciale des six mères alors présentes et la bonne santé des enfants. Le 7 août 1944, le site est évacué en urgence, les archives brûlées et les nouveau-nés transférés vers la maison mère de Steinhöring en Haute-Bavière,. 
+Après la libération, la villa reste inoccupée pendant une dizaine d'années avant d'être rachetée par la Fondation Pour le Traitement et la Formation Professionnelle des Jeunes Infirmes, sous l'impulsion de la baronne Jacqueline de Maupeou, épouse du banquier Jacques Mallet, très active au sein de la Croix-Rouge. La demeure abrite dès lors un Centre de Réadaptation Fonctionnelle, avec un internat de 76 lits. En 1965, la Croix-Rouge devient gestionnaire du site. L'association devient propriétaire des lieux à compter de 1980. En 2001, une unité clinique de la marche et du mouvement y est installée.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Le centre de soins actuel</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Centre de médecine physique et de réadaptation pour enfants (CMPRE) est un établissement de soins privé administré par un conseil de surveillance. Il compte aujourd'hui 102 lits et cinq médecins dans les spécialités des affections de l'appareil locomoteur et du système nerveux[1]. Après trois phases d'agrandissements successives (1961, 1980 et 1983), l'établissement s'étend aujourd'hui sur quatre niveaux[9].
-L'IRFSS des Hauts-de-France organise depuis 1968 des formations à Bois Larris, tout d'abord dans le domaine de la kinésithérapie[10], puis des ambulanciers[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Centre de médecine physique et de réadaptation pour enfants (CMPRE) est un établissement de soins privé administré par un conseil de surveillance. Il compte aujourd'hui 102 lits et cinq médecins dans les spécialités des affections de l'appareil locomoteur et du système nerveux. Après trois phases d'agrandissements successives (1961, 1980 et 1983), l'établissement s'étend aujourd'hui sur quatre niveaux.
+L'IRFSS des Hauts-de-France organise depuis 1968 des formations à Bois Larris, tout d'abord dans le domaine de la kinésithérapie, puis des ambulanciers.
 En mars 2023, le CMPRE du Bois Larris a été contraint de fermer l'intégralité du site en raison de l'instabilité de la structure d'un des bâtiments
 </t>
         </is>
